--- a/template Excel/HR/Applicant.xlsx
+++ b/template Excel/HR/Applicant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5420EBF8-E034-4484-AB72-8FED731BDE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2EA57B-32AB-45D6-83E7-48CA1A246C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1E5332A0-582E-422A-B883-C96BC268C56F}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{1E5332A0-582E-422A-B883-C96BC268C56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="77">
   <si>
     <t>ApplicantId</t>
   </si>
@@ -168,16 +168,123 @@
   </si>
   <si>
     <t>bui.k@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.a1@example.com</t>
+  </si>
+  <si>
+    <t>tran.b1@example.com</t>
+  </si>
+  <si>
+    <t>le.c1@example.com</t>
+  </si>
+  <si>
+    <t>pham.d1@example.com</t>
+  </si>
+  <si>
+    <t>vu.e1@example.com</t>
+  </si>
+  <si>
+    <t>do.f1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.g1@example.com</t>
+  </si>
+  <si>
+    <t>hoang.h1@example.com</t>
+  </si>
+  <si>
+    <t>ly.i1@example.com</t>
+  </si>
+  <si>
+    <t>bui.k1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.l1@example.com</t>
+  </si>
+  <si>
+    <t>tran.m1@example.com</t>
+  </si>
+  <si>
+    <t>le.n1@example.com</t>
+  </si>
+  <si>
+    <t>pham.o1@example.com</t>
+  </si>
+  <si>
+    <t>vu.p1@example.com</t>
+  </si>
+  <si>
+    <t>do.q1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.r1@example.com</t>
+  </si>
+  <si>
+    <t>hoang.s1@example.com</t>
+  </si>
+  <si>
+    <t>ly.t1@example.com</t>
+  </si>
+  <si>
+    <t>bui.u1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.v1@example.com</t>
+  </si>
+  <si>
+    <t>tran.w1@example.com</t>
+  </si>
+  <si>
+    <t>le.x1@example.com</t>
+  </si>
+  <si>
+    <t>pham.y1@example.com</t>
+  </si>
+  <si>
+    <t>vu.z1@example.com</t>
+  </si>
+  <si>
+    <t>do.a2@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.b2@example.com</t>
+  </si>
+  <si>
+    <t>hoang.c2@example.com</t>
+  </si>
+  <si>
+    <t>ly.d2@example.com</t>
+  </si>
+  <si>
+    <t>bui.e2@example.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>abcdefs@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,19 +307,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBF7C44-E473-4EEE-9BAD-11292BA1F692}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,22 +706,22 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>32918</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>987654321</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -619,22 +732,22 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>33746</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>912345678</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -645,22 +758,22 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>32450</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>901234567</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -671,22 +784,22 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>34897</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>981122334</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -697,22 +810,22 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>33491</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>976543210</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -723,22 +836,22 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>32132</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="6">
         <v>965432109</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -749,22 +862,22 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>34429</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <v>954321098</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -775,22 +888,22 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>33114</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="6">
         <v>943210987</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -801,22 +914,22 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>34047</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="6">
         <v>932109876</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -827,29 +940,1000 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>35246</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="6">
         <v>921098765</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>32918</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>921098766</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3">
+        <v>33746</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6">
+        <v>921098767</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>32450</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6">
+        <v>921098768</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3">
+        <v>34897</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6">
+        <v>921098769</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3">
+        <v>33491</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="6">
+        <v>921098770</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <v>32132</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="6">
+        <v>921098771</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>34429</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="6">
+        <v>921098772</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3">
+        <v>33114</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="6">
+        <v>921098773</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>34047</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="6">
+        <v>921098774</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="6">
+        <v>921098775</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3">
+        <v>32918</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="6">
+        <v>921098776</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
+        <v>33746</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="6">
+        <v>921098777</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>32450</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="6">
+        <v>921098778</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3">
+        <v>34897</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6">
+        <v>921098779</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>33491</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6">
+        <v>921098780</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3">
+        <v>32132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="6">
+        <v>921098781</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3">
+        <v>34429</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="6">
+        <v>921098782</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3">
+        <v>33114</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="6">
+        <v>921098783</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3">
+        <v>34047</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="6">
+        <v>921098784</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="6">
+        <v>921098785</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="3">
+        <v>32918</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="6">
+        <v>921098786</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="3">
+        <v>33746</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="6">
+        <v>921098787</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="3">
+        <v>32450</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6">
+        <v>921098788</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34897</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="6">
+        <v>921098789</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33491</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="6">
+        <v>921098790</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3">
+        <v>32132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="6">
+        <v>921098791</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3">
+        <v>34429</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6">
+        <v>921098792</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3">
+        <v>33114</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="6">
+        <v>921098793</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>34047</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="6">
+        <v>921098794</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="6">
+        <v>921098795</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="6">
+        <v>328</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="6">
+        <v>456</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
+        <v>35246</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="6">
+        <v>456</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="7">
+        <v>35246</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" s="6">
+        <v>541</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="7">
+        <v>35246</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1235</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="7">
+        <v>35246</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="6">
+        <v>685</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="7">
+        <v>35246</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="6">
+        <v>125</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G42" r:id="rId1" xr:uid="{4C6C4023-18A3-4E08-AC20-6C0C0B33A2E7}"/>
+    <hyperlink ref="G43" r:id="rId2" xr:uid="{DA997B6D-FF52-492B-8691-B54A7BD54877}"/>
+    <hyperlink ref="G44" r:id="rId3" xr:uid="{21FE4545-4380-4D6A-B328-F1212E927FAA}"/>
+    <hyperlink ref="G45" r:id="rId4" xr:uid="{7B90F291-0461-4CDC-B986-50A542E0F556}"/>
+    <hyperlink ref="G48" r:id="rId5" display="abcdefs@gmail.com" xr:uid="{3DE72ADD-AA89-420E-86F8-97521C86FD69}"/>
+    <hyperlink ref="G46" r:id="rId6" xr:uid="{AD3B4F68-1DCD-4762-8B1B-F2EDAD2D0E57}"/>
+    <hyperlink ref="G47" r:id="rId7" xr:uid="{10C82556-8DBD-4C6E-91E2-7B3A601834DE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>